--- a/snca_ctrl_trip_a53t_ribogreen.xlsx
+++ b/snca_ctrl_trip_a53t_ribogreen.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PETERK/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEB42C4-038F-7445-BEAF-487EE027C398}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="19035" windowHeight="14565"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="51">
   <si>
     <t>A</t>
   </si>
@@ -154,13 +168,28 @@
   </si>
   <si>
     <t>485/20,528/20[5]</t>
+  </si>
+  <si>
+    <t>minus blank</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>well conc (ng/ml)</t>
+  </si>
+  <si>
+    <t>origin conc (pg/ul)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,15 +425,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -438,13 +458,1019 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$28:$Y$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$30:$Y$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15079.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12426.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10192.700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5200.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2424.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1187.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>609.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F40-7E4B-BCF7-CE853F4B8676}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="629088143"/>
+        <c:axId val="628668143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="629088143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628668143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="628668143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629088143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540CAB2F-BC2F-B34E-8FDE-5D9B86993AD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,7 +1516,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,9 +1548,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,6 +1600,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -731,16 +1793,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1</v>
@@ -779,8 +1844,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
@@ -799,8 +1864,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -817,8 +1882,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -835,8 +1900,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
@@ -875,8 +1940,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
       <c r="B6" s="5"/>
       <c r="C6" s="9">
         <v>50</v>
@@ -911,8 +1976,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
       <c r="B7" s="6"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -929,8 +1994,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
@@ -969,8 +2034,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
       <c r="B9" s="5"/>
       <c r="C9" s="9">
         <v>50</v>
@@ -1005,8 +2070,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
       <c r="B10" s="6"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1023,8 +2088,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3"/>
@@ -1043,8 +2108,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1061,8 +2126,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1079,8 +2144,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3"/>
@@ -1119,8 +2184,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
       <c r="B15" s="5"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1137,8 +2202,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
       <c r="B16" s="6"/>
       <c r="C16" s="15" t="s">
         <v>28</v>
@@ -1175,8 +2240,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3"/>
@@ -1195,8 +2260,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1213,8 +2278,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1231,8 +2296,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="3"/>
@@ -1251,8 +2316,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="17"/>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1269,8 +2334,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="18"/>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1287,8 +2352,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="3"/>
@@ -1307,8 +2372,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1325,8 +2390,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="18"/>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1343,7 +2408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>1</v>
@@ -1382,227 +2447,526 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18">
+    <row r="28" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="18">
+      <c r="O28" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28">
+        <v>50</v>
+      </c>
+      <c r="Q28">
+        <f>(120/200)*50</f>
+        <v>30</v>
+      </c>
+      <c r="R28">
+        <f>(100/200)*50</f>
+        <v>25</v>
+      </c>
+      <c r="S28">
+        <f>(80/200)*50</f>
+        <v>20</v>
+      </c>
+      <c r="T28">
+        <f>(60/200)*50</f>
+        <v>15</v>
+      </c>
+      <c r="U28">
+        <f>(40/200)*50</f>
+        <v>10</v>
+      </c>
+      <c r="V28">
+        <f>(20/200)*50</f>
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <f>(10/200)*50</f>
+        <v>2.5</v>
+      </c>
+      <c r="X28">
+        <f>(5/200)*50</f>
+        <v>1.25</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17">
         <v>3909</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="18">
         <v>2671</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="19">
         <v>2319</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="20">
         <v>1994</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="21">
         <v>1707</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="22">
         <v>1345</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="23">
         <v>967</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="24">
         <v>803</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="24">
         <v>727</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L29" s="24">
         <v>640</v>
       </c>
-      <c r="M29" s="19"/>
+      <c r="M29" s="16"/>
       <c r="N29" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="18">
+      <c r="O29" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29">
+        <f>AVERAGE(C29,C30)-AVERAGE($L29,$L30)</f>
+        <v>3228</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ref="Q29:Y29" si="0">AVERAGE(D29,D30)-AVERAGE($L29,$L30)</f>
+        <v>1980</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>1639.5</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>1326.5</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>1030.5</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>679.5</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="0"/>
+        <v>85.5</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17">
         <v>3825</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="25">
         <v>2567</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="19">
         <v>2238</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="20">
         <v>1937</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="21">
         <v>1632</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="22">
         <v>1292</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="23">
         <v>957</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="24">
         <v>785</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="24">
         <v>722</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="24">
         <v>638</v>
       </c>
-      <c r="M30" s="19"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="18">
+      <c r="O30" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30">
+        <f>AVERAGE(P29,P39,P49,P59,P69)</f>
+        <v>24293</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Y30" si="1">AVERAGE(Q29,Q39,Q49,Q59,Q69)</f>
+        <v>15079.1</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>12426.7</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>10192.700000000001</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>7825</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>5200.3</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>2424.6</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="1"/>
+        <v>1187.8</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="1"/>
+        <v>609.6</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18">
+    <row r="32" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="27">
+      <c r="B32" s="16"/>
+      <c r="C32" s="24">
         <v>644</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="24">
         <v>698</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="24">
         <v>724</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="24">
         <v>776</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="24">
         <v>741</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="23">
         <v>879</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="24">
         <v>652</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="23">
         <v>862</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K32" s="24">
         <v>839</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="24">
         <v>787</v>
       </c>
-      <c r="M32" s="19"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="18">
+      <c r="O32" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32">
+        <f>C32-(AVERAGE($L29,$L30))</f>
+        <v>5</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Z32" si="2">D32-(AVERAGE($L29,$L30))</f>
+        <v>59</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="18">
+      <c r="O33" t="s">
+        <v>47</v>
+      </c>
+      <c r="P33">
+        <f>AVERAGE(P32,P42,P52,P62,P72)</f>
+        <v>47.9</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33:Y33" si="3">AVERAGE(Q32,Q42,Q52,Q62,Q72)</f>
+        <v>449.9</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>565.29999999999995</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
+        <v>1006.9</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>840.7</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="3"/>
+        <v>1934.7</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="3"/>
+        <v>185.1</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="3"/>
+        <v>1680.3</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="3"/>
+        <v>1539.5</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="3"/>
+        <v>1175.0999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="18">
+      <c r="O34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34">
+        <f>P33/494.85</f>
+        <v>9.6797009194705463E-2</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Y34" si="4">Q33/494.85</f>
+        <v>0.90916439325047982</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="4"/>
+        <v>1.1423663736485803</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>2.0347580074770133</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="4"/>
+        <v>1.6988986561584318</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>3.9096695968475297</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="4"/>
+        <v>0.37405274325553195</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="4"/>
+        <v>3.3955744164898451</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="4"/>
+        <v>3.1110437506315045</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="4"/>
+        <v>2.374658987571991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
       <c r="N35" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O35" t="s">
+        <v>50</v>
+      </c>
+      <c r="P35">
+        <f>P34*200</f>
+        <v>19.359401838941093</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35:Y35" si="5">Q34*200</f>
+        <v>181.83287865009595</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>228.47327472971605</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="5"/>
+        <v>406.95160149540266</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="5"/>
+        <v>339.77973123168636</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="5"/>
+        <v>781.93391936950593</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="5"/>
+        <v>74.810548651106387</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="5"/>
+        <v>679.11488329796907</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="5"/>
+        <v>622.20875012630086</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="5"/>
+        <v>474.93179751439823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="2">
         <v>1</v>
@@ -1641,227 +3005,307 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="18">
+    <row r="38" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
       <c r="N38" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="18">
+    <row r="39" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20">
+      <c r="B39" s="16"/>
+      <c r="C39" s="17">
         <v>9054</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="18">
         <v>6200</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="19">
         <v>5386</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="20">
         <v>4728</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="21">
         <v>3959</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="22">
         <v>3142</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="23">
         <v>2223</v>
       </c>
-      <c r="J39" s="27">
+      <c r="J39" s="24">
         <v>1878</v>
       </c>
-      <c r="K39" s="27">
+      <c r="K39" s="24">
         <v>1703</v>
       </c>
-      <c r="L39" s="27">
+      <c r="L39" s="24">
         <v>1535</v>
       </c>
-      <c r="M39" s="19"/>
+      <c r="M39" s="16"/>
       <c r="N39" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="18">
+      <c r="P39">
+        <f>AVERAGE(C39,C40)-AVERAGE($L39,$L40)</f>
+        <v>7449</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39" si="6">AVERAGE(D39,D40)-AVERAGE($L39,$L40)</f>
+        <v>4570.5</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ref="R39" si="7">AVERAGE(E39,E40)-AVERAGE($L39,$L40)</f>
+        <v>3798</v>
+      </c>
+      <c r="S39">
+        <f t="shared" ref="S39" si="8">AVERAGE(F39,F40)-AVERAGE($L39,$L40)</f>
+        <v>3112.5</v>
+      </c>
+      <c r="T39">
+        <f t="shared" ref="T39" si="9">AVERAGE(G39,G40)-AVERAGE($L39,$L40)</f>
+        <v>2363.5</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ref="U39" si="10">AVERAGE(H39,H40)-AVERAGE($L39,$L40)</f>
+        <v>1573.5</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ref="V39" si="11">AVERAGE(I39,I40)-AVERAGE($L39,$L40)</f>
+        <v>723.5</v>
+      </c>
+      <c r="W39">
+        <f t="shared" ref="W39" si="12">AVERAGE(J39,J40)-AVERAGE($L39,$L40)</f>
+        <v>351.5</v>
+      </c>
+      <c r="X39">
+        <f t="shared" ref="X39" si="13">AVERAGE(K39,K40)-AVERAGE($L39,$L40)</f>
+        <v>194</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" ref="Y39" si="14">AVERAGE(L39,L40)-AVERAGE($L39,$L40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17">
         <v>8886</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="25">
         <v>5983</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="19">
         <v>5252</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="20">
         <v>4539</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="21">
         <v>3810</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="22">
         <v>3047</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="23">
         <v>2266</v>
       </c>
-      <c r="J40" s="27">
+      <c r="J40" s="24">
         <v>1867</v>
       </c>
-      <c r="K40" s="27">
+      <c r="K40" s="24">
         <v>1727</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="24">
         <v>1507</v>
       </c>
-      <c r="M40" s="19"/>
+      <c r="M40" s="16"/>
       <c r="N40" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18">
+    <row r="41" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
       <c r="N41" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="18">
+    <row r="42" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="27">
+      <c r="B42" s="16"/>
+      <c r="C42" s="24">
         <v>1532</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="24">
         <v>1659</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="24">
         <v>1738</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="24">
         <v>1824</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="24">
         <v>1758</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="23">
         <v>2103</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="24">
         <v>1557</v>
       </c>
-      <c r="J42" s="26">
+      <c r="J42" s="23">
         <v>1981</v>
       </c>
-      <c r="K42" s="26">
+      <c r="K42" s="23">
         <v>1992</v>
       </c>
-      <c r="L42" s="27">
+      <c r="L42" s="24">
         <v>1898</v>
       </c>
-      <c r="M42" s="19"/>
+      <c r="M42" s="16"/>
       <c r="N42" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="18">
+      <c r="P42">
+        <f>C42-(AVERAGE($L39,$L40))</f>
+        <v>11</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ref="Q42" si="15">D42-(AVERAGE($L39,$L40))</f>
+        <v>138</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ref="R42" si="16">E42-(AVERAGE($L39,$L40))</f>
+        <v>217</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ref="S42" si="17">F42-(AVERAGE($L39,$L40))</f>
+        <v>303</v>
+      </c>
+      <c r="T42">
+        <f t="shared" ref="T42" si="18">G42-(AVERAGE($L39,$L40))</f>
+        <v>237</v>
+      </c>
+      <c r="U42">
+        <f t="shared" ref="U42" si="19">H42-(AVERAGE($L39,$L40))</f>
+        <v>582</v>
+      </c>
+      <c r="V42">
+        <f t="shared" ref="V42" si="20">I42-(AVERAGE($L39,$L40))</f>
+        <v>36</v>
+      </c>
+      <c r="W42">
+        <f t="shared" ref="W42" si="21">J42-(AVERAGE($L39,$L40))</f>
+        <v>460</v>
+      </c>
+      <c r="X42">
+        <f t="shared" ref="X42" si="22">K42-(AVERAGE($L39,$L40))</f>
+        <v>471</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" ref="Y42" si="23">L42-(AVERAGE($L39,$L40))</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
       <c r="N43" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="18">
+    <row r="44" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
       <c r="N44" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="18">
+    <row r="45" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
       <c r="N45" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="2">
         <v>1</v>
@@ -1900,227 +3344,307 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="18">
+    <row r="48" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
       <c r="N48" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="18">
+    <row r="49" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20">
+      <c r="B49" s="16"/>
+      <c r="C49" s="17">
         <v>19554</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="18">
         <v>13337</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="19">
         <v>11736</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="20">
         <v>10144</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="21">
         <v>8618</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="26">
         <v>6884</v>
       </c>
-      <c r="I49" s="26">
+      <c r="I49" s="23">
         <v>4922</v>
       </c>
-      <c r="J49" s="27">
+      <c r="J49" s="24">
         <v>4134</v>
       </c>
-      <c r="K49" s="27">
+      <c r="K49" s="24">
         <v>3699</v>
       </c>
-      <c r="L49" s="27">
+      <c r="L49" s="24">
         <v>3346</v>
       </c>
-      <c r="M49" s="19"/>
+      <c r="M49" s="16"/>
       <c r="N49" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="18">
+      <c r="P49">
+        <f>AVERAGE(C49,C50)-AVERAGE($L49,$L50)</f>
+        <v>16011.5</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" ref="Q49" si="24">AVERAGE(D49,D50)-AVERAGE($L49,$L50)</f>
+        <v>9831</v>
+      </c>
+      <c r="R49">
+        <f t="shared" ref="R49" si="25">AVERAGE(E49,E50)-AVERAGE($L49,$L50)</f>
+        <v>8156.5</v>
+      </c>
+      <c r="S49">
+        <f t="shared" ref="S49" si="26">AVERAGE(F49,F50)-AVERAGE($L49,$L50)</f>
+        <v>6667</v>
+      </c>
+      <c r="T49">
+        <f t="shared" ref="T49" si="27">AVERAGE(G49,G50)-AVERAGE($L49,$L50)</f>
+        <v>5091.5</v>
+      </c>
+      <c r="U49">
+        <f t="shared" ref="U49" si="28">AVERAGE(H49,H50)-AVERAGE($L49,$L50)</f>
+        <v>3351</v>
+      </c>
+      <c r="V49">
+        <f t="shared" ref="V49" si="29">AVERAGE(I49,I50)-AVERAGE($L49,$L50)</f>
+        <v>1517.5</v>
+      </c>
+      <c r="W49">
+        <f t="shared" ref="W49" si="30">AVERAGE(J49,J50)-AVERAGE($L49,$L50)</f>
+        <v>754.5</v>
+      </c>
+      <c r="X49">
+        <f t="shared" ref="X49" si="31">AVERAGE(K49,K50)-AVERAGE($L49,$L50)</f>
+        <v>344.5</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" ref="Y49" si="32">AVERAGE(L49,L50)-AVERAGE($L49,$L50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20">
+      <c r="B50" s="16"/>
+      <c r="C50" s="17">
         <v>19168</v>
       </c>
-      <c r="D50" s="28">
+      <c r="D50" s="25">
         <v>13024</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="19">
         <v>11276</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="20">
         <v>9889</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="21">
         <v>8264</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H50" s="22">
         <v>6517</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="23">
         <v>4812</v>
       </c>
-      <c r="J50" s="27">
+      <c r="J50" s="24">
         <v>4074</v>
       </c>
-      <c r="K50" s="27">
+      <c r="K50" s="24">
         <v>3689</v>
       </c>
-      <c r="L50" s="27">
+      <c r="L50" s="24">
         <v>3353</v>
       </c>
-      <c r="M50" s="19"/>
+      <c r="M50" s="16"/>
       <c r="N50" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="18">
+    <row r="51" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
       <c r="N51" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18">
+    <row r="52" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="27">
+      <c r="B52" s="16"/>
+      <c r="C52" s="24">
         <v>3315</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="24">
         <v>3583</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="24">
         <v>3723</v>
       </c>
-      <c r="F52" s="27">
+      <c r="F52" s="24">
         <v>4015</v>
       </c>
-      <c r="G52" s="27">
+      <c r="G52" s="24">
         <v>3920</v>
       </c>
-      <c r="H52" s="26">
+      <c r="H52" s="23">
         <v>4581</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="24">
         <v>3414</v>
       </c>
-      <c r="J52" s="26">
+      <c r="J52" s="23">
         <v>4339</v>
       </c>
-      <c r="K52" s="26">
+      <c r="K52" s="23">
         <v>4359</v>
       </c>
-      <c r="L52" s="27">
+      <c r="L52" s="24">
         <v>4129</v>
       </c>
-      <c r="M52" s="19"/>
+      <c r="M52" s="16"/>
       <c r="N52" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="18">
+      <c r="P52">
+        <f>C52-(AVERAGE($L49,$L50))</f>
+        <v>-34.5</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ref="Q52" si="33">D52-(AVERAGE($L49,$L50))</f>
+        <v>233.5</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ref="R52" si="34">E52-(AVERAGE($L49,$L50))</f>
+        <v>373.5</v>
+      </c>
+      <c r="S52">
+        <f t="shared" ref="S52" si="35">F52-(AVERAGE($L49,$L50))</f>
+        <v>665.5</v>
+      </c>
+      <c r="T52">
+        <f t="shared" ref="T52" si="36">G52-(AVERAGE($L49,$L50))</f>
+        <v>570.5</v>
+      </c>
+      <c r="U52">
+        <f t="shared" ref="U52" si="37">H52-(AVERAGE($L49,$L50))</f>
+        <v>1231.5</v>
+      </c>
+      <c r="V52">
+        <f t="shared" ref="V52" si="38">I52-(AVERAGE($L49,$L50))</f>
+        <v>64.5</v>
+      </c>
+      <c r="W52">
+        <f t="shared" ref="W52" si="39">J52-(AVERAGE($L49,$L50))</f>
+        <v>989.5</v>
+      </c>
+      <c r="X52">
+        <f t="shared" ref="X52" si="40">K52-(AVERAGE($L49,$L50))</f>
+        <v>1009.5</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" ref="Y52" si="41">L52-(AVERAGE($L49,$L50))</f>
+        <v>779.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
       <c r="N53" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="18">
+    <row r="54" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
       <c r="N54" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18">
+    <row r="55" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
       <c r="N55" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2">
         <v>1</v>
@@ -2159,227 +3683,307 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="18">
+    <row r="58" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
       <c r="N58" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="18">
+    <row r="59" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20">
+      <c r="B59" s="16"/>
+      <c r="C59" s="17">
         <v>39690</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="18">
         <v>27582</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="19">
         <v>24029</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="20">
         <v>20899</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="21">
         <v>17620</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H59" s="26">
         <v>14304</v>
       </c>
-      <c r="I59" s="26">
+      <c r="I59" s="23">
         <v>10055</v>
       </c>
-      <c r="J59" s="27">
+      <c r="J59" s="24">
         <v>8452</v>
       </c>
-      <c r="K59" s="27">
+      <c r="K59" s="24">
         <v>7560</v>
       </c>
-      <c r="L59" s="27">
+      <c r="L59" s="24">
         <v>6943</v>
       </c>
-      <c r="M59" s="19"/>
+      <c r="M59" s="16"/>
       <c r="N59" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="18">
+      <c r="P59">
+        <f>AVERAGE(C59,C60)-AVERAGE($L59,$L60)</f>
+        <v>32477</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" ref="Q59" si="42">AVERAGE(D59,D60)-AVERAGE($L59,$L60)</f>
+        <v>20213</v>
+      </c>
+      <c r="R59">
+        <f t="shared" ref="R59" si="43">AVERAGE(E59,E60)-AVERAGE($L59,$L60)</f>
+        <v>16633.5</v>
+      </c>
+      <c r="S59">
+        <f t="shared" ref="S59" si="44">AVERAGE(F59,F60)-AVERAGE($L59,$L60)</f>
+        <v>13675.5</v>
+      </c>
+      <c r="T59">
+        <f t="shared" ref="T59" si="45">AVERAGE(G59,G60)-AVERAGE($L59,$L60)</f>
+        <v>10437</v>
+      </c>
+      <c r="U59">
+        <f t="shared" ref="U59" si="46">AVERAGE(H59,H60)-AVERAGE($L59,$L60)</f>
+        <v>7000</v>
+      </c>
+      <c r="V59">
+        <f t="shared" ref="V59" si="47">AVERAGE(I59,I60)-AVERAGE($L59,$L60)</f>
+        <v>3215</v>
+      </c>
+      <c r="W59">
+        <f t="shared" ref="W59" si="48">AVERAGE(J59,J60)-AVERAGE($L59,$L60)</f>
+        <v>1606</v>
+      </c>
+      <c r="X59">
+        <f t="shared" ref="X59" si="49">AVERAGE(K59,K60)-AVERAGE($L59,$L60)</f>
+        <v>728.5</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" ref="Y59" si="50">AVERAGE(L59,L60)-AVERAGE($L59,$L60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20">
+      <c r="B60" s="16"/>
+      <c r="C60" s="17">
         <v>38990</v>
       </c>
-      <c r="D60" s="28">
+      <c r="D60" s="25">
         <v>26570</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E60" s="19">
         <v>22964</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="20">
         <v>20178</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="21">
         <v>16980</v>
       </c>
-      <c r="H60" s="25">
+      <c r="H60" s="22">
         <v>13422</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I60" s="23">
         <v>10101</v>
       </c>
-      <c r="J60" s="27">
+      <c r="J60" s="24">
         <v>8486</v>
       </c>
-      <c r="K60" s="27">
+      <c r="K60" s="24">
         <v>7623</v>
       </c>
-      <c r="L60" s="27">
+      <c r="L60" s="24">
         <v>6783</v>
       </c>
-      <c r="M60" s="19"/>
+      <c r="M60" s="16"/>
       <c r="N60" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="18">
+    <row r="61" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
       <c r="N61" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="18">
+    <row r="62" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="27">
+      <c r="B62" s="16"/>
+      <c r="C62" s="24">
         <v>6969</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="24">
         <v>7428</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="24">
         <v>7602</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F62" s="24">
         <v>8283</v>
       </c>
-      <c r="G62" s="27">
+      <c r="G62" s="24">
         <v>7973</v>
       </c>
-      <c r="H62" s="26">
+      <c r="H62" s="23">
         <v>9528</v>
       </c>
-      <c r="I62" s="27">
+      <c r="I62" s="24">
         <v>7057</v>
       </c>
-      <c r="J62" s="26">
+      <c r="J62" s="23">
         <v>9134</v>
       </c>
-      <c r="K62" s="26">
+      <c r="K62" s="23">
         <v>8890</v>
       </c>
-      <c r="L62" s="27">
+      <c r="L62" s="24">
         <v>8398</v>
       </c>
-      <c r="M62" s="19"/>
+      <c r="M62" s="16"/>
       <c r="N62" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="18">
+      <c r="P62">
+        <f>C62-(AVERAGE($L59,$L60))</f>
+        <v>106</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" ref="Q62" si="51">D62-(AVERAGE($L59,$L60))</f>
+        <v>565</v>
+      </c>
+      <c r="R62">
+        <f t="shared" ref="R62" si="52">E62-(AVERAGE($L59,$L60))</f>
+        <v>739</v>
+      </c>
+      <c r="S62">
+        <f t="shared" ref="S62" si="53">F62-(AVERAGE($L59,$L60))</f>
+        <v>1420</v>
+      </c>
+      <c r="T62">
+        <f t="shared" ref="T62" si="54">G62-(AVERAGE($L59,$L60))</f>
+        <v>1110</v>
+      </c>
+      <c r="U62">
+        <f t="shared" ref="U62" si="55">H62-(AVERAGE($L59,$L60))</f>
+        <v>2665</v>
+      </c>
+      <c r="V62">
+        <f t="shared" ref="V62" si="56">I62-(AVERAGE($L59,$L60))</f>
+        <v>194</v>
+      </c>
+      <c r="W62">
+        <f t="shared" ref="W62" si="57">J62-(AVERAGE($L59,$L60))</f>
+        <v>2271</v>
+      </c>
+      <c r="X62">
+        <f t="shared" ref="X62" si="58">K62-(AVERAGE($L59,$L60))</f>
+        <v>2027</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" ref="Y62" si="59">L62-(AVERAGE($L59,$L60))</f>
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
       <c r="N63" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="18">
+    <row r="64" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
       <c r="N64" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="18">
+    <row r="65" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
       <c r="N65" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="2">
         <v>1</v>
@@ -2418,222 +4022,302 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="18">
+    <row r="68" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
       <c r="N68" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="18">
+    <row r="69" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20">
+      <c r="B69" s="16"/>
+      <c r="C69" s="17">
         <v>76463</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="18">
         <v>53394</v>
       </c>
-      <c r="E69" s="28">
+      <c r="E69" s="25">
         <v>46617</v>
       </c>
-      <c r="F69" s="23">
+      <c r="F69" s="20">
         <v>40581</v>
       </c>
-      <c r="G69" s="24">
+      <c r="G69" s="21">
         <v>34524</v>
       </c>
-      <c r="H69" s="29">
+      <c r="H69" s="26">
         <v>27747</v>
       </c>
-      <c r="I69" s="26">
+      <c r="I69" s="23">
         <v>20013</v>
       </c>
-      <c r="J69" s="26">
+      <c r="J69" s="23">
         <v>16718</v>
       </c>
-      <c r="K69" s="27">
+      <c r="K69" s="24">
         <v>15152</v>
       </c>
-      <c r="L69" s="27">
+      <c r="L69" s="24">
         <v>13632</v>
       </c>
-      <c r="M69" s="19"/>
+      <c r="M69" s="16"/>
       <c r="N69" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="18">
+      <c r="P69">
+        <f>AVERAGE(C69,C70)-AVERAGE($L69,$L70)</f>
+        <v>62299.5</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" ref="Q69" si="60">AVERAGE(D69,D70)-AVERAGE($L69,$L70)</f>
+        <v>38801</v>
+      </c>
+      <c r="R69">
+        <f t="shared" ref="R69" si="61">AVERAGE(E69,E70)-AVERAGE($L69,$L70)</f>
+        <v>31906</v>
+      </c>
+      <c r="S69">
+        <f t="shared" ref="S69" si="62">AVERAGE(F69,F70)-AVERAGE($L69,$L70)</f>
+        <v>26182</v>
+      </c>
+      <c r="T69">
+        <f t="shared" ref="T69" si="63">AVERAGE(G69,G70)-AVERAGE($L69,$L70)</f>
+        <v>20202.5</v>
+      </c>
+      <c r="U69">
+        <f t="shared" ref="U69" si="64">AVERAGE(H69,H70)-AVERAGE($L69,$L70)</f>
+        <v>13397.5</v>
+      </c>
+      <c r="V69">
+        <f t="shared" ref="V69" si="65">AVERAGE(I69,I70)-AVERAGE($L69,$L70)</f>
+        <v>6344</v>
+      </c>
+      <c r="W69">
+        <f t="shared" ref="W69" si="66">AVERAGE(J69,J70)-AVERAGE($L69,$L70)</f>
+        <v>3072</v>
+      </c>
+      <c r="X69">
+        <f t="shared" ref="X69" si="67">AVERAGE(K69,K70)-AVERAGE($L69,$L70)</f>
+        <v>1695.5</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" ref="Y69" si="68">AVERAGE(L69,L70)-AVERAGE($L69,$L70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20">
+      <c r="B70" s="16"/>
+      <c r="C70" s="17">
         <v>75074</v>
       </c>
-      <c r="D70" s="28">
+      <c r="D70" s="25">
         <v>51146</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="19">
         <v>44133</v>
       </c>
-      <c r="F70" s="23">
+      <c r="F70" s="20">
         <v>38721</v>
       </c>
-      <c r="G70" s="24">
+      <c r="G70" s="21">
         <v>32819</v>
       </c>
-      <c r="H70" s="25">
+      <c r="H70" s="22">
         <v>25986</v>
       </c>
-      <c r="I70" s="26">
+      <c r="I70" s="23">
         <v>19613</v>
       </c>
-      <c r="J70" s="27">
+      <c r="J70" s="24">
         <v>16364</v>
       </c>
-      <c r="K70" s="27">
+      <c r="K70" s="24">
         <v>15177</v>
       </c>
-      <c r="L70" s="27">
+      <c r="L70" s="24">
         <v>13306</v>
       </c>
-      <c r="M70" s="19"/>
+      <c r="M70" s="16"/>
       <c r="N70" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="18">
+    <row r="71" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
       <c r="N71" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="18">
+    <row r="72" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="27">
+      <c r="B72" s="16"/>
+      <c r="C72" s="24">
         <v>13621</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="24">
         <v>14723</v>
       </c>
-      <c r="E72" s="27">
+      <c r="E72" s="24">
         <v>14881</v>
       </c>
-      <c r="F72" s="27">
+      <c r="F72" s="24">
         <v>15978</v>
       </c>
-      <c r="G72" s="27">
+      <c r="G72" s="24">
         <v>15653</v>
       </c>
-      <c r="H72" s="26">
+      <c r="H72" s="23">
         <v>18424</v>
       </c>
-      <c r="I72" s="27">
+      <c r="I72" s="24">
         <v>14087</v>
       </c>
-      <c r="J72" s="26">
+      <c r="J72" s="23">
         <v>17927</v>
       </c>
-      <c r="K72" s="26">
+      <c r="K72" s="23">
         <v>17459</v>
       </c>
-      <c r="L72" s="27">
+      <c r="L72" s="24">
         <v>16505</v>
       </c>
-      <c r="M72" s="19"/>
+      <c r="M72" s="16"/>
       <c r="N72" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="18">
+      <c r="P72">
+        <f>C72-(AVERAGE($L69,$L70))</f>
+        <v>152</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" ref="Q72" si="69">D72-(AVERAGE($L69,$L70))</f>
+        <v>1254</v>
+      </c>
+      <c r="R72">
+        <f t="shared" ref="R72" si="70">E72-(AVERAGE($L69,$L70))</f>
+        <v>1412</v>
+      </c>
+      <c r="S72">
+        <f t="shared" ref="S72" si="71">F72-(AVERAGE($L69,$L70))</f>
+        <v>2509</v>
+      </c>
+      <c r="T72">
+        <f t="shared" ref="T72" si="72">G72-(AVERAGE($L69,$L70))</f>
+        <v>2184</v>
+      </c>
+      <c r="U72">
+        <f t="shared" ref="U72" si="73">H72-(AVERAGE($L69,$L70))</f>
+        <v>4955</v>
+      </c>
+      <c r="V72">
+        <f t="shared" ref="V72" si="74">I72-(AVERAGE($L69,$L70))</f>
+        <v>618</v>
+      </c>
+      <c r="W72">
+        <f t="shared" ref="W72" si="75">J72-(AVERAGE($L69,$L70))</f>
+        <v>4458</v>
+      </c>
+      <c r="X72">
+        <f t="shared" ref="X72" si="76">K72-(AVERAGE($L69,$L70))</f>
+        <v>3990</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" ref="Y72" si="77">L72-(AVERAGE($L69,$L70))</f>
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
       <c r="N73" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="18">
+    <row r="74" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
       <c r="N74" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="18">
+    <row r="75" spans="1:25" ht="24" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
       <c r="N75" s="4" t="s">
         <v>45</v>
       </c>
@@ -2651,28 +4335,29 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
